--- a/USN.xlsx
+++ b/USN.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="230">
   <si>
     <t xml:space="preserve">usn</t>
   </si>
   <si>
-    <t xml:space="preserve">1BI18CS406</t>
+    <t xml:space="preserve">1BI16CS029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI16CS104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI16CS141</t>
   </si>
   <si>
     <t xml:space="preserve">1BI17CS001</t>
@@ -76,12 +82,6 @@
     <t xml:space="preserve">1BI17CS016</t>
   </si>
   <si>
-    <t xml:space="preserve">1PL17CS012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PL17CS045</t>
-  </si>
-  <si>
     <t xml:space="preserve">1BI17CS017</t>
   </si>
   <si>
@@ -130,12 +130,6 @@
     <t xml:space="preserve">1BI17CS032</t>
   </si>
   <si>
-    <t xml:space="preserve">1BI17IS031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PN17CS007</t>
-  </si>
-  <si>
     <t xml:space="preserve">1BI17CS033</t>
   </si>
   <si>
@@ -184,463 +178,538 @@
     <t xml:space="preserve">1BI17CS048</t>
   </si>
   <si>
+    <t xml:space="preserve">1BI17CS049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS054</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS068</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS070</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS072</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS078</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS083</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS086</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS093</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS094</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS149</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS151</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS156</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS178</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS192</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS193</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS196</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS199</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI17CS220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI16CS099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI16CS186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1BI16CS152</t>
+  </si>
+  <si>
     <t xml:space="preserve">1BI17CS421</t>
   </si>
   <si>
-    <t xml:space="preserve">1PL17CS039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS049</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS052</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS054</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS055</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS057</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI16CS141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI16CS104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI16CS029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS068</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS070</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS071</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS077</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS078</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS086</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS091</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS092</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS093</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS094</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS095</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PN17CS016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1PN17CS002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBI16CS186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBI16CS152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS097</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS098</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBI16CS099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS136</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS141</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPL17CS060</t>
+    <t xml:space="preserve">1BI16CS079</t>
   </si>
   <si>
     <t xml:space="preserve">1BI16CS425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS144</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS145</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS152</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS154</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPN17CS015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS160</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPN17CS004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPN17CS008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI16CS079</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS174</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS177</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS184</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS186</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1BI17CS187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IPL17CS036</t>
   </si>
 </sst>
 </file>
@@ -650,7 +719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -677,39 +746,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -762,45 +798,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -812,15 +816,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="FreeSans"/>
-        <charset val="1"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -829,10 +824,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A207"/>
+  <dimension ref="A1:A230"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -847,1046 +842,1151 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="0" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="0" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="0" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="0" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="0" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="0" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="0" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="0" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="0" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="0" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="0" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="0" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="0" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="0" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="0" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="0" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="0" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="0" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="0" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="0" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="5" t="s">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="3" t="s">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="0" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="0" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="0" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="0" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="0" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="0" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="0" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="0" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="0" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="0" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="0" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="0" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="0" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="0" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="0" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="0" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="0" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="0" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="0" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="0" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="0" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="0" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="0" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="0" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="0" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="0" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="0" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="3" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="3" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="0" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="0" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="0" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="0" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="0" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="0" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="0" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="0" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="0" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="0" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="0" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="0" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="0" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="0" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="0" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="3" t="s">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="0" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="0" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="0" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="0" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="0" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="0" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="0" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="0" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="0" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="0" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="0" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="0" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="0" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="0" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="0" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="0" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="0" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="0" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="0" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="0" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="0" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="0" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="0" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="0" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="0" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="0" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="0" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="0" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="0" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="0" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="0" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="0" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="0" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="0" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="0" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="0" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="0" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="0" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="0" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="0" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="0" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="0" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="0" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="0" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="0" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="0" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="0" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="0" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="0" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="0" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="0" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="0" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="0" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="0" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="0" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="0" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="0" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="0" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="0" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="0" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="0" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="0" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="0" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="0" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="0" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="0" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="0" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="0" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="0" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="0" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="0" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="0" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="0" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="0" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="0" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="0" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="0" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="0" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="0" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="0" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="0" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="0" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="0" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="0" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="0" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="0" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="0" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="0" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="0" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="0" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="0" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="0" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="0" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="0" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="0" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="s">
+      <c r="A191" s="0" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="0" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="0" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="0" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="0" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="0" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="0" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="0" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="0" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="0" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="0" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="0" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="0" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="0" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="0" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="0" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="0" t="s">
         <v>206</v>
       </c>
     </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A7:A8 A129:A130 A145:A146">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$D5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58:A59">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>$D54</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
